--- a/공부일지.xlsx
+++ b/공부일지.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donal\Desktop\servlet_jsp_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3FED72-67D2-4F9D-B7E7-48DF4BFFB30D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DEAF21-C91E-4422-9900-C38B1691CA98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>web.xml을 통한 매핑방법, Annotation을 통한 URL 매핑방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,115 @@
   </si>
   <si>
     <t>파일의 타입은 html이고 charset은 UTF-8이다 라고 알려주는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpServletRequest를 통한 get request 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request.getParameter("~~"); 를 통해 쿼리스트링을 입력받을 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 쿼리스트링이 URL에 없을 경우 없는 값을 받으려고 하기 때문에 에러가 난다. -&gt; null, 공백문자 체크 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post 방식의 request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html에서 method="post" 를 추가함으로써 post방식으로 변경, 기본값은 get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서블릿 필터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">설명 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수문장 역할, 기본적인 설정들(사전, 사후) 미리 설정해놓으면 서블릿마다 설정할 필요 x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필터도 web.xml을 수정하는 방식, Annotation방식 2가지가 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;servlet&gt;</t>
+  </si>
+  <si>
+    <t>&lt;servlet-name&gt;na&lt;/servlet-name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;servlet-class&gt;com.newlecture.web.Nana&lt;/servlet-class&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/servlet&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;servlet-mapping&gt;</t>
+  </si>
+  <si>
+    <t>&lt;url-pattern&gt;/hello&lt;/url-pattern&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/servlet-mapping&gt;</t>
+  </si>
+  <si>
+    <t>&lt;filter&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>&lt;filter-name&gt;characterEncodingFilter&lt;/filter-name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;filter-class&gt;com.newlecture.web.filter.CharacterEncodingFilter&lt;/filter-class&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/filter&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;filter-mapping&gt;</t>
+  </si>
+  <si>
+    <t>&lt;url-pattern&gt;/*&lt;/url-pattern&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/filter-mapping&gt;</t>
+  </si>
+  <si>
+    <t>request.setCharacterEncoding("UTF-8");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chain.doFilter(request, response);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 코드를 추가함으로써 필터를 통해 인코딩을 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response도 필터를 통해 할 수 있지만, 파일의 종류를 고정할 위험이 있다.(css, js가 html로 고정되는 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@WebFilter("/*");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실습(두 수의 합 출력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">add.java, add.html </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,12 +227,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -404,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:P13"/>
+  <dimension ref="C4:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -419,14 +529,14 @@
       <c r="C4" s="1">
         <v>44227</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -448,51 +558,493 @@
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="K6" s="4" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="K6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="K7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="K10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="K12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+      <c r="K15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J8" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K17" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="K9" s="2" t="s">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="K10" s="2" t="s">
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="K11" s="2" t="s">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="K12" s="2" t="s">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="K13" t="s">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C24" s="1">
+        <v>44228</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C29" s="1">
+        <v>44229</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="K31" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="K32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="K33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="K34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="K35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="K36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="K37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="K38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="K39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="K40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="K41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="K42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="K43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="K45" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/공부일지.xlsx
+++ b/공부일지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donal\Desktop\servlet_jsp_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DEAF21-C91E-4422-9900-C38B1691CA98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307EBE91-61A4-41BC-882A-A238081218CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
   <si>
     <t>web.xml을 통한 매핑방법, Annotation을 통한 URL 매핑방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,179 @@
   </si>
   <si>
     <t xml:space="preserve">add.java, add.html </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input태그 중 next타입과 submit타입의 쿼리스트링 전송 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text타입은 name=""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submit타입은 name=value 꼴로 전송됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 데이터 반복으로 받아오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name속성을 같게 해주면 배열로 넘어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받을 때는 String[]를 통해 배열로 받는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 유지의 필요성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덧셈을 한번에 하는 것이 아닌 숫자를 받을 때마다 바로바로 처리한다면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서블릿이 올라갔다 내려갔다 하면서 값이 사라질 것임.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 셋은 서블릿이 살았다 죽었다 해도 계속 살아서 값을 저장할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application.setAttribute("value", key);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application.getAttribute("value");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왠지는 모르겠지만 페이지가 하얀 화면으로 넘어가서 뒤로가기를 해줘야 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServletContext application = request.getServletContext();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpsSession session = request.getSession();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얘도 페이지가 흰 화면으로 넘어가서 뒤로가기를 해줘야 이어서 계산할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 프로세스 내 다른 스레드일 경우 같은 session으로 인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 사용자가 같은 자원을 공유(전체 사용자 수 같은 것을 체크할 때)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자마다 각각의 자원을 사용할 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session은 SID를 통해 구별함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application과 session은 서버에 저장하지만, cookie는 클라이언트에 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookie는 반드시 문자열로 저장해서 보내야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cookie[] cookies = request.getCookies();</t>
+  </si>
+  <si>
+    <t>for(Cookie c : cookies) {</t>
+  </si>
+  <si>
+    <t>if (c.getName().equals("value")) {</t>
+  </si>
+  <si>
+    <t>x = Integer.parseInt(c.getValue());</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이용할 때만 쿠키를 이용할 수 있다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기본적으로 브라우저와 생명주기가 같지만, maxAge를 설정할 경우 브라우저를 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료해도 cookie가 남아있을 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setMaxAge(24*60*60);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxAge를 설정하게 되면 하드에 저장을 하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니면 메모리에 저장하게 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookie 하루 유지 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명주기는 WAS랑 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명주기는 세션이랑 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setPath()함수를 통해 특정 URL(정확히는 매핑이 일치하는 클래스)를</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redirection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산페이지에서 버튼을 누를 경우 흰 화면이 나오는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이를redirection으로 해결할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰 화면을 리턴하는게 아닌 html파일을 경유해서 리턴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,11 +400,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -514,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:U45"/>
+  <dimension ref="C4:Z81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -529,14 +704,14 @@
       <c r="C4" s="1">
         <v>44227</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -558,12 +733,12 @@
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
       <c r="K6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1047,6 +1222,248 @@
         <v>43</v>
       </c>
     </row>
+    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="J47" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="K48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+      <c r="J50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="K51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>50</v>
+      </c>
+      <c r="J53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="K54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="K56" t="s">
+        <v>55</v>
+      </c>
+      <c r="M56" t="s">
+        <v>54</v>
+      </c>
+      <c r="U56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="M57" t="s">
+        <v>59</v>
+      </c>
+      <c r="U57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="M58" t="s">
+        <v>64</v>
+      </c>
+      <c r="U58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="M59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="K61" t="s">
+        <v>56</v>
+      </c>
+      <c r="M61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="M62" t="s">
+        <v>65</v>
+      </c>
+      <c r="U62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="M63" t="s">
+        <v>63</v>
+      </c>
+      <c r="U63" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+    </row>
+    <row r="64" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="M64" t="s">
+        <v>66</v>
+      </c>
+      <c r="U64" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+    </row>
+    <row r="65" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="M65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="K67" t="s">
+        <v>53</v>
+      </c>
+      <c r="M67" t="s">
+        <v>67</v>
+      </c>
+      <c r="U67" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z67" s="6"/>
+    </row>
+    <row r="68" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="M68" t="s">
+        <v>68</v>
+      </c>
+      <c r="U68" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
+    </row>
+    <row r="69" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="M69" t="s">
+        <v>84</v>
+      </c>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+    </row>
+    <row r="70" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="M70" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
+    </row>
+    <row r="71" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="U71" s="6"/>
+      <c r="V71" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
+    </row>
+    <row r="72" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="U72" s="6"/>
+      <c r="V72" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Z72" s="6"/>
+    </row>
+    <row r="73" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="U73" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="Y73" s="6"/>
+    </row>
+    <row r="74" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="M74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="M75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="M76" t="s">
+        <v>78</v>
+      </c>
+      <c r="P76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="P77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="P78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>86</v>
+      </c>
+      <c r="K80" t="s">
+        <v>85</v>
+      </c>
+      <c r="M80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D4:I4"/>

--- a/공부일지.xlsx
+++ b/공부일지.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donal\Desktop\servlet_jsp_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307EBE91-61A4-41BC-882A-A238081218CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F9324B-2049-444A-AE9E-8111ECBCA234}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="112">
   <si>
     <t>web.xml을 통한 매핑방법, Annotation을 통한 URL 매핑방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,6 +366,98 @@
   </si>
   <si>
     <t>흰 화면을 리턴하는게 아닌 html파일을 경유해서 리턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">setMaxAge(0); </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>을 통해 쿠키를 삭제할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get, post에 특화된 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get요청을 해도, post요청을 해도 같은 로직으로 돌아갔지만,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의 요청에 맞게 따로 함수를 만들 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request.getMethod()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html에서는 get, post처럼 소문자로 보내지만, 서블릿이 받을 때는 GET, POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대문자로 받는다. (if문을 통해 get, post를 나누어 코딩할 수 있다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>super.service(req, res); 를 통해 doPost, doGet을 오버라이딩 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이는 service메소드 외에 doPost, doGet메소드를 만들어줘야 한다. 아니면 405에러 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정리하자면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">service를 오버라이딩 했다면 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오버라이딩한 service-&gt;원하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안했다면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doGet, doPost를 오버라이딩 해서 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 때 super.service를 호출한다면,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service-&gt;원하는 함수-&gt;doGet, doPost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의 로직을 설정할 수 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이는 service를 오버라이딩할 필요 없이 doGet, doPost만 클래스 안에 오버라이딩하면 됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get, post의 처리가 같을 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get, post마다 처리가 다를 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용하면 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얘는 get방식으로 됨.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +465,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,13 +480,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -397,10 +511,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -409,8 +526,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -689,18 +809,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:Z81"/>
+  <dimension ref="A4:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C4" s="1">
         <v>44227</v>
       </c>
@@ -713,7 +833,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -732,7 +852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -743,61 +863,87 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="K15" s="4" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
         <v>6</v>
@@ -824,7 +970,7 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -847,7 +993,7 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -870,7 +1016,7 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -893,7 +1039,7 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -916,7 +1062,7 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -939,28 +1085,33 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>44228</v>
       </c>
@@ -989,7 +1140,7 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1012,28 +1163,33 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
         <v>16</v>
@@ -1060,28 +1216,33 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>44229</v>
       </c>
@@ -1110,7 +1271,7 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1133,18 +1294,18 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K31" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K33" s="4" t="s">
         <v>30</v>
       </c>
@@ -1152,7 +1313,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K34" s="4" t="s">
         <v>30</v>
       </c>
@@ -1160,19 +1321,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K35" s="4" t="s">
         <v>33</v>
       </c>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K36" s="4" t="s">
         <v>34</v>
       </c>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K37" s="4" t="s">
         <v>30</v>
       </c>
@@ -1180,7 +1341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K38" s="4" t="s">
         <v>30</v>
       </c>
@@ -1188,33 +1349,59 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K39" s="4" t="s">
         <v>36</v>
       </c>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>42</v>
       </c>
@@ -1222,7 +1409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>44</v>
       </c>
@@ -1233,12 +1420,38 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>47</v>
       </c>
@@ -1249,12 +1462,38 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>50</v>
       </c>
@@ -1265,12 +1504,38 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K56" t="s">
         <v>55</v>
       </c>
@@ -1281,7 +1546,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M57" t="s">
         <v>59</v>
       </c>
@@ -1289,7 +1554,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M58" t="s">
         <v>64</v>
       </c>
@@ -1297,12 +1562,38 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M59" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K61" t="s">
         <v>56</v>
       </c>
@@ -1310,7 +1601,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M62" t="s">
         <v>65</v>
       </c>
@@ -1318,7 +1609,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M63" t="s">
         <v>63</v>
       </c>
@@ -1329,7 +1620,7 @@
       <c r="W63" s="5"/>
       <c r="X63" s="5"/>
     </row>
-    <row r="64" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M64" t="s">
         <v>66</v>
       </c>
@@ -1340,12 +1631,38 @@
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
     </row>
-    <row r="65" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="M65" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="K67" t="s">
         <v>53</v>
       </c>
@@ -1357,7 +1674,7 @@
       </c>
       <c r="Z67" s="6"/>
     </row>
-    <row r="68" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="M68" t="s">
         <v>68</v>
       </c>
@@ -1370,7 +1687,7 @@
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
     </row>
-    <row r="69" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="M69" t="s">
         <v>84</v>
       </c>
@@ -1381,7 +1698,7 @@
       <c r="W69" s="6"/>
       <c r="X69" s="6"/>
     </row>
-    <row r="70" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="M70" s="6" t="s">
         <v>75</v>
       </c>
@@ -1393,7 +1710,7 @@
       <c r="X70" s="6"/>
       <c r="Y70" s="6"/>
     </row>
-    <row r="71" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="U71" s="6"/>
       <c r="V71" s="6" t="s">
         <v>73</v>
@@ -1403,7 +1720,7 @@
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
     </row>
-    <row r="72" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="U72" s="6"/>
       <c r="V72" s="6" t="s">
         <v>74</v>
@@ -1412,7 +1729,7 @@
       <c r="X72" s="6"/>
       <c r="Z72" s="6"/>
     </row>
-    <row r="73" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="U73" s="6" t="s">
         <v>74</v>
       </c>
@@ -1420,17 +1737,17 @@
       <c r="W73" s="6"/>
       <c r="Y73" s="6"/>
     </row>
-    <row r="74" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="M74" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="M75" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="M76" t="s">
         <v>78</v>
       </c>
@@ -1438,31 +1755,207 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="P77" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="4:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="P78" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="4:26" x14ac:dyDescent="0.3">
-      <c r="D80" t="s">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M79" t="s">
+        <v>89</v>
+      </c>
+      <c r="O79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
         <v>86</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K81" t="s">
         <v>85</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M81" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D81" t="s">
+      <c r="S81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
         <v>87</v>
       </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
+      <c r="W83" s="9"/>
+      <c r="X83" s="9"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C84" s="8">
+        <v>44231</v>
+      </c>
+      <c r="D84" t="s">
+        <v>91</v>
+      </c>
+      <c r="K84" t="s">
+        <v>94</v>
+      </c>
+      <c r="M84" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>92</v>
+      </c>
+      <c r="M85" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K87" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K88" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K89" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K91" t="s">
+        <v>100</v>
+      </c>
+      <c r="O91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K92" t="s">
+        <v>101</v>
+      </c>
+      <c r="O92" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K93" t="s">
+        <v>104</v>
+      </c>
+      <c r="O93" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K95" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K97" t="s">
+        <v>108</v>
+      </c>
+      <c r="O97" t="s">
+        <v>109</v>
+      </c>
+      <c r="S97" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
+      <c r="U98" s="9"/>
+      <c r="V98" s="9"/>
+      <c r="W98" s="9"/>
+      <c r="X98" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/공부일지.xlsx
+++ b/공부일지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donal\Desktop\servlet_jsp_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F9324B-2049-444A-AE9E-8111ECBCA234}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164BBD36-9B0A-4192-B698-B34A6CC5E726}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="156">
   <si>
     <t>web.xml을 통한 매핑방법, Annotation을 통한 URL 매핑방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,6 +458,182 @@
   </si>
   <si>
     <t>얘는 get방식으로 됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control = 동적인 것을 정적으로 고정하는 로직, 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view = model을 html내에서 출력만 해주는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model = 동적인 것을 정적으로 고정한 데이터(홀짝의 경우 하나로 결정된 홀수 혹은 짝수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp에서 변수를 출력할 경우 &lt;%=%&gt;로 감싸줘야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp에서 자바 문법을 이용할 경우 &lt;%%&gt;로 자바 문장을 감싸줘야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp model2 mvc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp model1 mvc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mc, v를 따로 나누어 2파일로 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일간 포워딩은 request를 통해 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request.setAttribute("~~", ~~);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request.Dispatcher dispatcher = request.getRequestDispatcher("~~");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispatcher.forward(request, response);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expression Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model2에서 View단에서 출력을 위해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바 코드가 필요한데 이를 없애고 싶다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request.getAttribute("~~")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${~~}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${~~.[index]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${~~.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">page, request, session, application객체 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL을 통해 다 표현할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL은 다양한 저장소에 있는 변수를 표현할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageScope, requestScope등 내장 함수를 사용하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 저장소의 변수를 출력할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장소는 우선순위가 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page&gt;request&gt;session&gt;application 우선순위가 있어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 변수명이 있어도 우선순위에 따라 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL 연산자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">html은 &lt;&gt;를 통해 구분하기 때문에 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;나 &gt;가 들어가있는 비교연산자는 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용하기에 좋지 않다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 영어로 된 연산자들이 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty는 null이거나 빈문자열이면 참</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;-&gt; not empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판, 기타 등등 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 수업을 위해서는 jdbc가 필요해서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc수업을 듣고 올것.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -525,9 +701,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
@@ -544,6 +725,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>138573</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF38972-A15C-46B0-B92C-580E39B21333}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14287501" y="23260050"/>
+          <a:ext cx="3276600" cy="1395873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>578603</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D0573A-20DB-476F-8910-1E4FA0F7F8DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17735550" y="23279100"/>
+          <a:ext cx="3312278" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>15815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE4227C-A912-416B-BC38-80684A030A12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14316076" y="26612850"/>
+          <a:ext cx="2286000" cy="2530415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -809,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:Z98"/>
+  <dimension ref="A4:Z143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="K99" sqref="K99"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="L134" sqref="L134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -824,14 +1142,14 @@
       <c r="C4" s="1">
         <v>44227</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -853,12 +1171,12 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
       <c r="K6" s="3" t="s">
         <v>5</v>
       </c>
@@ -918,30 +1236,30 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
@@ -1086,30 +1404,30 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
@@ -1164,30 +1482,30 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
@@ -1217,30 +1535,30 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
@@ -1376,30 +1694,30 @@
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
@@ -1426,30 +1744,30 @@
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
@@ -1468,30 +1786,30 @@
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
@@ -1510,30 +1828,30 @@
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K56" t="s">
@@ -1568,30 +1886,30 @@
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="9"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K61" t="s">
@@ -1637,30 +1955,30 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="K67" t="s">
@@ -1774,30 +2092,30 @@
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="9"/>
-      <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
-      <c r="U80" s="9"/>
-      <c r="V80" s="9"/>
-      <c r="W80" s="9"/>
-      <c r="X80" s="9"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8"/>
+      <c r="V80" s="8"/>
+      <c r="W80" s="8"/>
+      <c r="X80" s="8"/>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
@@ -1819,33 +2137,33 @@
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="9"/>
-      <c r="S83" s="9"/>
-      <c r="T83" s="9"/>
-      <c r="U83" s="9"/>
-      <c r="V83" s="9"/>
-      <c r="W83" s="9"/>
-      <c r="X83" s="9"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="8"/>
+      <c r="T83" s="8"/>
+      <c r="U83" s="8"/>
+      <c r="V83" s="8"/>
+      <c r="W83" s="8"/>
+      <c r="X83" s="8"/>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C84" s="8">
+      <c r="C84" s="7">
         <v>44231</v>
       </c>
       <c r="D84" t="s">
@@ -1932,30 +2250,365 @@
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="9"/>
-      <c r="O98" s="9"/>
-      <c r="P98" s="9"/>
-      <c r="Q98" s="9"/>
-      <c r="R98" s="9"/>
-      <c r="S98" s="9"/>
-      <c r="T98" s="9"/>
-      <c r="U98" s="9"/>
-      <c r="V98" s="9"/>
-      <c r="W98" s="9"/>
-      <c r="X98" s="9"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="8"/>
+      <c r="R98" s="8"/>
+      <c r="S98" s="8"/>
+      <c r="T98" s="8"/>
+      <c r="U98" s="8"/>
+      <c r="V98" s="8"/>
+      <c r="W98" s="8"/>
+      <c r="X98" s="8"/>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C99" s="1">
+        <v>44232</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="8"/>
+      <c r="R104" s="8"/>
+      <c r="S104" s="8"/>
+      <c r="T104" s="8"/>
+      <c r="U104" s="8"/>
+      <c r="V104" s="8"/>
+      <c r="W104" s="8"/>
+      <c r="X104" s="8"/>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C105" s="1">
+        <v>44234</v>
+      </c>
+      <c r="D105" t="s">
+        <v>117</v>
+      </c>
+      <c r="K105" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K106" t="s">
+        <v>120</v>
+      </c>
+      <c r="P106" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Q107" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Q108" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="P110" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+      <c r="Q111" s="8"/>
+      <c r="R111" s="8"/>
+      <c r="S111" s="8"/>
+      <c r="T111" s="8"/>
+      <c r="U111" s="8"/>
+      <c r="V111" s="8"/>
+      <c r="W111" s="8"/>
+      <c r="X111" s="8"/>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>126</v>
+      </c>
+      <c r="K112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="11:20" x14ac:dyDescent="0.3">
+      <c r="K113" t="s">
+        <v>128</v>
+      </c>
+      <c r="P113" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="S113" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="T113" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="11:20" x14ac:dyDescent="0.3">
+      <c r="P115" t="s">
+        <v>132</v>
+      </c>
+      <c r="S115" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="11:20" x14ac:dyDescent="0.3">
+      <c r="P116" t="s">
+        <v>134</v>
+      </c>
+      <c r="S116" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="120" spans="11:20" x14ac:dyDescent="0.3">
+      <c r="K120" t="s">
+        <v>138</v>
+      </c>
+      <c r="P120" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="121" spans="11:20" x14ac:dyDescent="0.3">
+      <c r="K121" t="s">
+        <v>139</v>
+      </c>
+      <c r="P121" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="123" spans="11:20" x14ac:dyDescent="0.3">
+      <c r="K123" t="s">
+        <v>142</v>
+      </c>
+      <c r="P123" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="124" spans="11:20" x14ac:dyDescent="0.3">
+      <c r="P124" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="11:20" x14ac:dyDescent="0.3">
+      <c r="K126" t="s">
+        <v>1</v>
+      </c>
+      <c r="P126" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="127" spans="11:20" x14ac:dyDescent="0.3">
+      <c r="P127" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>145</v>
+      </c>
+      <c r="P129" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="130" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="P130" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="131" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="P131" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="132" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="P132" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="134" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="P134" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="135" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="P135" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="142" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D142" t="s">
+        <v>152</v>
+      </c>
+      <c r="K142" t="s">
+        <v>153</v>
+      </c>
+      <c r="P142" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="143" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="P143" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1964,6 +2617,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>